--- a/Excel/life/2021/2021_行动卡_12月.xlsx
+++ b/Excel/life/2021/2021_行动卡_12月.xlsx
@@ -8,11 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="笔记本电脑任务卡" sheetId="6" r:id="rId1"/>
-    <sheet name="睡觉任务卡1 " sheetId="5" r:id="rId2"/>
-    <sheet name="todo" sheetId="4" r:id="rId3"/>
-    <sheet name="提高认知" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
-    <sheet name="专业技能" sheetId="2" r:id="rId6"/>
+    <sheet name="吃饭远离手机卡" sheetId="7" r:id="rId2"/>
+    <sheet name="睡觉任务卡1 " sheetId="5" r:id="rId3"/>
+    <sheet name="todo" sheetId="4" r:id="rId4"/>
+    <sheet name="提高认知" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
+    <sheet name="专业技能" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
   <si>
     <t>基本生活常识学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +255,26 @@
   </si>
   <si>
     <t>不解锁：设置晚上21点 22点 23点笔记本自动关机不解锁。不执行sudo命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午 晚上 睡觉 吃饭远离手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午公司吃饭三个关卡 1 付款关闭手机 忘记 2 吃饭过程声音 视频离开 3 不断斗争失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年第一周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机3个防御性全部坑坑 45分钟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上面试经验知识复盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,6 +467,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,12 +480,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -746,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -808,7 +829,9 @@
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="C6" t="s">
         <v>55</v>
       </c>
@@ -898,7 +921,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="2" max="2" width="74.5" customWidth="1"/>
+    <col min="3" max="3" width="88" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1018,8 +1176,8 @@
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D10" t="s">
@@ -1030,8 +1188,8 @@
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D11" t="s">
@@ -1042,8 +1200,8 @@
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1054,7 +1212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:D11"/>
   <sheetViews>
@@ -1129,7 +1287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -1144,11 +1302,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1324,7 +1482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1337,7 +1495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -1352,11 +1510,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
